--- a/may5ClinicSched.xlsx
+++ b/may5ClinicSched.xlsx
@@ -491,13 +491,33 @@
           <t>Mon 5/10 AM</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>John Colgan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Anthony Garza</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Marsha Phillip</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Naomi Littlejohn</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Chop Veal</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -507,13 +527,33 @@
           <t>Mon 5/10 PM</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>John Colgan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Anthony Garza</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Marsha Phillip</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Naomi Littlejohn</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Chop Veal</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -525,7 +565,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>John Colgan</t>
+          <t>Jane Jones</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +587,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Chop Veal</t>
+          <t>Ivan Stochosky</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -561,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>John Colgan</t>
+          <t>Jane Jones</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +623,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Chop Veal</t>
+          <t>Ivan Stochosky</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -595,31 +635,27 @@
           <t>Wed 5/12 AM</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jane Jones</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Anthony Garza</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Marsha Phillip</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Tammy Zelleke</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Naomi Littlejohn</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nelson Willie</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ivan Stochosky</t>
+          <t>Chop Veal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -638,7 +674,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anthony Garza</t>
+          <t>Brendan Fraser</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -648,14 +684,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Tammy Zelleke</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Naomi Littlejohn</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nelson Willie</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Ivan Stochosky</t>
+          <t>Chop Veal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -667,30 +711,38 @@
           <t>Thu 5/13 AM</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>John Colgan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tammy Zelleke</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Anthony Garza</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tammy Zelleke</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>Naomi Littlejohn</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Nelson Willie</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
+          <t>Jane Jones</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Chop Veal</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -701,40 +753,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Tammy Zelleke</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Brendan Fraser</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Marsha Phillip</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Naomi Littlejohn</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>Jane Jones</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Brendan Fraser</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Marsha Phillip</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Tammy Zelleke</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Naomi Littlejohn</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Nelson Willie</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Chop Veal</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -750,31 +798,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Jane Jones</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Brendan Fraser</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Tammy Zelleke</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Anthony Garza</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Naomi Littlejohn</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Jane Jones</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Chop Veal</t>
-        </is>
-      </c>
+          <t>Ivan Stochosky</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -785,36 +833,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Jane Jones</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Brendan Fraser</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Marsha Phillip</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Tammy Zelleke</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Brendan Fraser</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Marsha Phillip</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Naomi Littlejohn</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Jane Jones</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Chop Veal</t>
-        </is>
-      </c>
+          <t>Ivan Stochosky</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -823,37 +871,13 @@
           <t>Sat 5/15 AM</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>John Colgan</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Jane Jones</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Brendan Fraser</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Tammy Zelleke</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Naomi Littlejohn</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Ivan Stochosky</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
     </row>
@@ -863,37 +887,13 @@
           <t>Sat 5/15 PM</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Jane Jones</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Brendan Fraser</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Marsha Phillip</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Tammy Zelleke</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Naomi Littlejohn</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Ivan Stochosky</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -935,13 +935,29 @@
           <t>Mon 5/17 AM</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>John Colgan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Anthony Garza</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Marsha Phillip</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Chop Veal</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
     </row>
@@ -951,13 +967,29 @@
           <t>Mon 5/17 PM</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>John Colgan</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Anthony Garza</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Marsha Phillip</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Chop Veal</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
     </row>
@@ -969,7 +1001,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>John Colgan</t>
+          <t>Jane Jones</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -987,7 +1019,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Chop Veal</t>
+          <t>Ivan Stochosky</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1001,7 +1033,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>John Colgan</t>
+          <t>Jane Jones</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1009,17 +1041,13 @@
           <t>Anthony Garza</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Marsha Phillip</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Chop Veal</t>
+          <t>Ivan Stochosky</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1031,27 +1059,23 @@
           <t>Wed 5/19 AM</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Jane Jones</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Anthony Garza</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Marsha Phillip</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tammy Zelleke</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nelson Willie</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Ivan Stochosky</t>
+          <t>Chop Veal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1070,16 +1094,24 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Anthony Garza</t>
+          <t>Brendan Fraser</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tammy Zelleke</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nelson Willie</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Ivan Stochosky</t>
+          <t>Chop Veal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1091,25 +1123,25 @@
           <t>Thu 5/20 AM</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>John Colgan</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Tammy Zelleke</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Nelson Willie</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Anthony Garza</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Chop Veal</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
     </row>
@@ -1121,7 +1153,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jane Jones</t>
+          <t>Tammy Zelleke</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1130,22 +1162,10 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Tammy Zelleke</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Nelson Willie</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Chop Veal</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
     </row>
@@ -1162,18 +1182,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tammy Zelleke</t>
+          <t>Brendan Fraser</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Anthony Garza</t>
+          <t>Stacy Wilkerson</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Ivan Stochosky</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
     </row>
@@ -1185,19 +1209,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tammy Zelleke</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
           <t>Brendan Fraser</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ivan Stochosky</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
     </row>
@@ -1207,29 +1231,13 @@
           <t>Sat 5/22 AM</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>John Colgan</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Brendan Fraser</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Stacy Wilkerson</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Ivan Stochosky</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
     </row>
@@ -1239,21 +1247,13 @@
           <t>Sat 5/22 PM</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Brendan Fraser</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Ivan Stochosky</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
     </row>
